--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/58_Mersin_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/58_Mersin_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED5C385C-9C59-4C84-AF62-4171D4A721A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CFD3955-091A-43C9-BA1E-E5819966EC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{AD311FED-4726-4F05-B573-89F9D3A60D4B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{EDD3DD30-6FCB-4407-ADB2-E2899B7839AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -951,13 +951,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{46705D14-6526-460F-907F-3C3C0E847FDE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{91928BF0-DF6F-4141-80F4-203C28287449}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8F7C6BBE-AC6B-40E6-8B6F-7174A477D01F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1630F63D-E65D-4797-9A5C-8AB0AA7E8AD3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2F1CCF5A-862B-49C4-9D92-486B4996117D}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{E953226D-9822-4BE0-892F-F7A5720E06E3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{24DBA73A-E1E3-4DCF-B747-65C85E50D36F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{38B5840D-F827-4C3B-B718-46F23CA31495}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5D91673F-3FCE-439C-8697-FEC094AB0AAB}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{540C8387-00F0-4EBE-AC72-A87C2E25D5CC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C5026EB5-E873-4495-A1FA-0009FA8183C8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8897590A-C2D3-470C-B5FC-6A05D152438B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1CBB18CC-23D6-475C-8BAA-E17B866D530E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{EF8A4CC4-22EE-4628-8014-958660F6B993}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04693BDC-B09C-4973-9DE5-546A3903D0B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6BF365-466B-4A3C-81D8-72A75BC5F08B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2624,18 +2624,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99943BAC-0189-4443-B71E-C62169521DA3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{389F07D6-026F-4023-B6C5-7ECBB92F5F6C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB0858CD-2A1C-4036-B9C5-11870DABBF67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01C26282-8FAD-4FEB-A0A7-AB6E728535FC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A127909-042F-4030-BBD5-45888869993B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A2BE442F-DEF6-48A9-B107-69E6F8B91CC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67EA4D76-4614-442E-8C75-695DEE8C57C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5479012A-3DB7-4131-883D-04F1F9592471}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55FCB684-2E1B-464D-BB30-2C4442B42E59}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BC11E044-48C9-4525-84C7-0868B4B732E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C27679C-7C96-40C8-88DC-091142C126CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93E94ACA-9D62-4D8C-93B9-F722EBA08CC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5CC68E6-D56E-4A78-9BFB-806693613D2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2E86A20-241A-48C4-82A7-E3CBBD806DF6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69E7DC23-44A4-44B4-B578-60DC43F02306}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82D6EB10-447A-4B40-80AF-725CB2AB0C37}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BDCBD8F6-88C1-4D48-A988-B7479004849A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{02533E89-88F6-491A-AE31-52629CCC89A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D41A92A1-C7A2-4D2C-8EAC-E0BA155013AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{500FD6E2-E796-409C-A42E-FA0223B258CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E871CFD-F445-4433-9D7B-908CFA61E5FA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E488A4F0-E7EC-4074-B04D-5CFA5009BE7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD76FD50-6E97-4BB3-972E-663ECF8BFEA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D0C4CDB-71B8-4260-A49F-76EED549589E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2648,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BF4AC2-87CF-478C-96AE-5078F49E4EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2B2DDC-9041-4861-814C-30FB3F9794CC}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3923,18 +3923,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE18D361-0B7C-4F32-B82A-D6A9805A8CE3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94958A21-4E4B-4AD4-9A24-5B8FD86B88FD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{32EAD6A1-D112-49A1-80E1-4E064B0008D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2E86C99-17A5-4AA2-BAB1-7C8B722A77C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{112CB591-9412-4C82-8ED1-F145565E4D9B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F3F402DF-EAEF-4895-9A87-5C14C4EBA969}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5945223E-83A9-4547-8FB3-F03529BEE11A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2512BD93-8ACB-4160-B3BC-69EC942032AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9AF547F-00AF-495C-BCCF-AA82EB15E667}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{57C5FE4D-2680-458F-864D-C041482A9D29}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E91EA6A6-0E9D-4883-8C17-8AC46D9B0CE7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{122D0E60-E2D4-4C81-BF6B-FCBE26D88587}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42529CAD-1454-4C9E-B0CC-347733010D70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE26AAFE-EE0B-4920-9296-C3C7815820E0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8106202A-CC5B-47BD-898F-707CA4BD2369}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82D8086A-7111-4101-939B-4DB456F7CCDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFA7C3A3-5A15-4D59-BD6D-6ED80A4A5083}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4C9B0814-4B07-4D9B-A193-0CB2AFA406E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA0DCE30-91B3-4C34-8486-A0286F52DCBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA4B525B-9444-4B76-9539-4B16A456F62E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13E9D1DC-3E9C-4CE5-91FF-4CECE2C6400E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6450955C-136A-46CD-B453-CC9AB1BEB248}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CA94B99-8DBF-4A53-8E39-BC29DC073583}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3DD912C-B4FB-40FB-9EAF-9E7960E307E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3947,7 +3947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F605F4DC-EA1F-4244-ACCA-AD26A72606EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3E9215-C68D-48B5-8E59-085BD6FDE6E8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5218,18 +5218,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3018CA3B-F7B2-4D7D-88A4-79894F09F66F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E42C66F8-0253-46EE-864B-8985B0239D97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB4F18DA-04D8-4ECA-BB10-F4C31B1FE66E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41E2BC7E-2053-4C30-A3A6-8B57CBA588DD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FEE081C5-F012-4434-BD12-F21F3BF80E75}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{447D6A89-BDB2-4019-95B2-1703EADAB37F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE255369-3413-4B0A-8998-78F6D9A9D752}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A86D2E44-D8C0-47E7-88D5-CF9F1E9A33C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1C1D607-B92F-49D2-AD85-772CD069EF4A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B8389BFB-BDD4-48DD-B02A-BD9EB64F7416}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0BD4319E-DFEA-4765-B381-ACEA11C7D0EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4780DD11-C25C-4D93-A1BE-3FAB05B75C6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{334DB09B-C9AA-4418-9D9B-0A4209907C0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC672EE4-09F7-4AA2-8102-419A08081318}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01147522-45A8-4A6B-9854-A59D749BFD06}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47F285D4-4D78-4583-8B30-BF83E24A6CBA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE6C84A0-31D0-4575-902B-8F9E3DD6A14E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B1667098-FBF2-422E-BC03-3E0AC899D24D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B7D03D6-D23B-4AB4-8C26-8F22CDE45F90}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49ECBFA7-802C-4714-BB3F-FE538D5203E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9ACBEDFA-1CD6-47D4-864C-6C6E21E2810C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F8FED3E-E8D9-4CF2-885E-88EB96C653C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBE6C496-9241-4D90-8D75-E3A1CA93E0B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F53CF7D-29C1-4B70-8AB9-9EE09C230F67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5242,7 +5242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386505E-E25D-4F3D-AB90-8C4CDFEB31D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FCB72-3E87-468D-A90B-F9E77B99567A}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6510,18 +6510,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAF29143-8CDF-4B09-91C4-21B9F445AFB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69DFDD81-06D3-4CD7-995C-A6EE776F8934}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D4A0C75-C573-444D-9C21-2C999A2CD3F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97C03A46-7003-4F5C-80B2-4497F52D61D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16B5D92E-DF90-433D-ACA8-73112FB8C32C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B01853C1-C061-47B2-B735-2A067971AEC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22BD05F4-DE8C-4C53-9763-6C88DAD71C72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8847C198-A8BE-422E-B0B6-FCA55E12AC09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{221CE250-5F78-427E-AB04-85D1331EE5B8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DAF1807F-CA3E-4076-BDDA-6988E2B6654F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C73FB08E-C5EC-4F2C-A289-0DDA6B5EAE17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14048B77-2515-4F89-B7BB-FC3B16E28670}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34426128-672E-4B22-9782-CA04D9228FBD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1868AA67-E552-4985-BBF4-C579E31E9A0C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BCBEB5E9-AE45-4E84-B2D8-D712C30C02B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BAFD3051-F5D9-431C-A1F0-0287D887616A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB086598-EAB0-4260-92D8-A2D96390F8EF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62452D34-B3D2-4E1A-ABF9-7151744AA47C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CDF6C223-2D93-49E2-93E7-BFFD6ADDF7EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC498025-1DCC-448E-B8C3-A27A2621D916}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A42F4DDC-6E11-4480-A227-2313E86184D8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3DB379C9-BBF0-46BC-9EE4-6C842E85F546}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65E6E6FA-4DB1-4C02-A5A6-E9D1C8D450F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCDD3D1A-CEF1-44A6-B856-63584BB39E2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6534,7 +6534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682EF3FD-9E3A-4055-ABF9-FF238E3F8897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C58034-16D9-4BE2-B685-BD3C13BAB74B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7831,18 +7831,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB5BE792-2C9E-4985-B7E9-2E6327AB281F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E695671-24CC-43C9-93F7-AA1F303F9397}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57BCFCD2-FD89-46DF-9E05-A7DEADC00CCF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7E3B5B4-1491-4154-A4D4-9D3225BB84D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D868D32A-1081-4321-A790-5503BB1F3F5A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E9C69262-306A-451D-A1DD-459924475BA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC4C4A20-1F8B-4F8A-A503-4C5CED098769}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34359598-157D-481F-86B7-0885B702878C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{626FCC5B-B1F2-4697-A8C9-54DB4C485CF9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6221417D-596E-4587-A701-1F151410282B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8608EB3-7205-4F9D-B301-A0C457CC6888}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF6D8727-3885-42B2-8C5D-7E2296087CAC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4DDF85BD-21EA-46F8-B2DF-C4BCCAC20004}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20D51BC4-CDE6-433E-A1E4-C8AE4F2166EB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A9A5600-8AD2-45FE-9DC2-A76EE40CF3CA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6C9B9C4-D6FC-409A-B576-9D0C055D672A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19FF0B02-61A0-46CB-A3E1-8582939EACE4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{06FFF2B6-C643-40EF-99E5-C34179731F10}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CBA0F4B-6B3F-4906-A51A-08A246588DD9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B554A89B-EF5A-4DE7-8A91-2CD16B13A090}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B75EF96E-322C-46D4-B88A-64095E867329}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DCCB5DA5-DBFF-4D61-B646-6ECCADB4DD5D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD9E489F-71D6-435B-81C6-BA34CEADFB1D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80EFA6BC-6444-41ED-8C6C-F63EBC874B1D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7855,7 +7855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05051737-892F-41D3-A042-8A5693889A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4515F1E-0F1B-4666-8802-47F1B39BF29D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9152,18 +9152,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA7F8D84-244B-4951-A555-E2CA4FC70A92}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{931CD38B-B970-4B1D-9E9F-0A799F9A706F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{07D2D649-CA5B-4065-88DE-CBD8C35B60D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B92738AC-1A73-4FAF-81D4-8D8211283A81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6355577-B865-471B-A774-C5D4F982BA18}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{415C1175-C120-43F7-B15A-598D54A539C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{398FDE50-1B2E-4C0E-BF52-189B233E82C3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1CA780F-1331-44D7-A644-72C3AC0A9A3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCDD8DAF-1760-4B88-9BF5-55A90E595BF3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5F04B99D-F227-4AF1-892C-42DF899C7A82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2839C3BC-55EF-46F6-9266-25A7DE859A1A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DAC68EBA-2D2B-4B15-B748-74D1C76AB828}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04347F60-771E-483B-B928-1B2A3421EAFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31FD2D77-1827-4792-A7A2-FC5F2CBEE452}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A8578DA1-40B9-4382-B5F5-829A7EC7B2CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C002BF4-4239-4FE2-BC8B-BC239A670003}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8041525D-5E37-40FB-B61B-E4F28527BABD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9BDE0C76-0B37-4C0A-BB08-6D8534B23F1C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24754B71-C681-42C3-B292-D1CC64A6FE13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D368ABD-858D-4F61-8C9D-6EC2334DACBE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFB1B4C9-E05F-4ED8-8EC0-AE4917B63331}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{466A7328-2A32-475E-B013-EA176079CABA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E775084-41E3-49F4-A45C-AABCFE80F4FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ECDF6D27-C802-413C-A886-1AAB94178959}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9176,7 +9176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF59342-EDCA-4C11-B98F-C1C947F7CB1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A71E688-D3DA-4298-BE4F-73A0E34CC67A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10469,18 +10469,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF68BC2A-838F-46E5-9511-B97D3F363AD6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51A5184A-0B76-407E-81D8-E8EDE766C149}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{155886E5-2AFA-450A-8E6E-A1A1D918E282}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B4AC543-E861-4139-9207-44441C2AE318}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A1EDDE6-E868-4255-926C-3238F89CA50C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ECB30846-EFB2-4540-BAF0-60A545922F22}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E900AAB-324E-4488-B210-2EC8899CF36B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C71B3822-00D7-4AFE-AF4B-767BC25D39AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC9FD337-2641-419C-B41F-39D92B6093C2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{16C52BEF-8EC5-4580-BFF5-9219C7990FDB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F64CEA5-C5DF-4760-9002-0D25CB52CF41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4760B8F3-90B4-45C8-A06C-788EF1EF92AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A98A9F03-32E5-4187-A5D4-944B2FCBA870}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B88D4F6E-9577-426D-A3BF-53AB24E7A102}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{61B3A594-D548-4E9A-A4AA-EBB47D286B58}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E79E01C4-FFB9-495E-88CA-80150FE36579}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{057DA8E1-A6D7-472D-AE7B-708D085B4400}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E27A8B5-33C1-43F0-B9A2-52FD8E898A94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1216E1D2-1858-4385-BA18-2BE2C5D0AEB3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98A41E01-8F9E-427F-864D-5E200E3B65EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B23E8D33-5E92-49FC-BCFD-510BD3CCF43C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{23BD52D2-FF15-4072-818C-1331A7C79FBB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBFF874D-C4BA-4237-A3D9-505A9A677DFE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA870FDA-5516-4188-B9DA-02722A752F62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10493,7 +10493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E01BF3D-8502-48C6-A84E-1732B9FF685C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC4F25A-87CB-43C8-8D7B-4B6679DE704A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11782,18 +11782,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3977618-6271-4136-A412-5B29C0109174}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65D5E9E9-4B85-400B-81CA-5D05983B7F99}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A3C4EBB6-5248-4367-921F-CE9F9ABD7016}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3821FB5-9C03-4BA0-BD9F-594793EF5F26}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{009B63BA-0EF8-4C8C-9266-00E61112D856}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CE35C959-AF13-470E-BEE1-9A7142633C7B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0AFC5F4-B4A7-442D-BA10-E302BD386BB7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8E2A3E2-B23A-4CFB-9CA2-DA0FDD54E767}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4FECBC2C-ACB8-4538-A8E2-98EDCFE1E23E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{472A91FC-2382-4F77-9F59-A00E4F603882}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{874E10B7-C9F9-4E16-98C8-AEB071ADCB64}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B870CC7C-2B0F-424B-ADA1-5BDBFC8FBB40}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0CC0C6F-A5B8-405F-BE85-AC38AE12B25B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3ACA34B-EE18-4A33-928F-E427216951F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A1870235-0EDC-4779-9DBE-5A3A29B04253}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBC13F4C-2EEF-40B4-9FF3-AF3E21D456FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F140886-E643-4A98-B074-D6900CED7D82}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{28C78B22-06E9-4522-96CA-7231BFB6422D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89AA549F-4686-4108-9312-240CAA797D62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A106E321-7A6E-4D95-9BFC-CC41211D03E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE2CE0D6-089B-4F41-983C-40F3C992B567}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B5BFAB0B-8C72-4579-A1C3-E8C5D3918606}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FACE2AB4-2F55-4BE8-B0AD-755D1E6B53BD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DFA057C5-7AE0-4F14-B08E-7C6C6CEDDF3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11806,7 +11806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C4E8D0-C46E-4705-8BF3-C6EAE803E805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1860206F-6A69-456F-B78D-E2CCFEF6C694}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13087,18 +13087,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C121EC29-7571-45CF-8B2E-D98123B70705}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3F13C3C-1E8D-4034-8644-06F9446058AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30A0B4D8-1757-45A7-AFA9-17C68D8AF48B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F53D18D-AF33-4093-BB6A-DF9C81E7F1C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F12C94F-8DED-4A93-A261-B360D3CB87B2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{838BF1CC-824B-43C2-B157-3ACA67B9C0E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37FA90DC-2E59-40A5-A5A8-A891DBB3599F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A85829F7-5816-4058-9F03-FB2106EA1DCC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C7E2CC8-2FDF-46AB-AF54-0658F17EA47D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E5BC9489-D3DF-4A02-B929-6A59058A15E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93A47C90-24C3-4EA0-B5CE-1671DDECBEFB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{812DE65E-D29B-4A46-8B99-13361537CBFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BEBF47F4-0C4D-4088-8B7A-B7F62C0D56C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27C07E9F-9A4D-489C-A5BF-B2CF63D30C78}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{815A7C46-6AB0-4D5D-A5F0-15CF1A849C54}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B4A6B09-B3E9-466B-A35E-945D4FEBC3FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F1E70B8-5389-4403-A0A7-D6373CAA276D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5FE2E779-BE7F-4093-A2C0-BD399A7F9949}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{083D0242-26EB-49B0-B65D-750EBFD46ABC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DE22593-DE20-4A28-AE9F-B49708695AB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A76EB6D-0CF4-4BBF-916C-DE9B0EDFA358}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F37F2276-D324-4776-98B8-8085157A806B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DCEF0785-45BA-4627-9000-8D843C206365}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{593F215B-48E8-4913-A501-4FE4B9024AE5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13111,7 +13111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AC6211-A559-4266-AD77-DBAF6AE01972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F22E08-E705-410B-B9B1-F8369721D947}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14390,18 +14390,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08F1BABC-E19F-469E-82ED-01AC9B343FB8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3114DF8-C127-45D1-B79A-35697F387A7E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{11D47A58-C8F2-480A-8E06-9CAAE20AFDA7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{11943A2A-2F15-411A-9C48-C50B86C1DC0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E10C25C4-8727-416C-BAA4-AB750145A57C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{79D309F6-EC3B-4888-A36B-4E9B5D426E29}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8DBFB01-3B5D-49E1-A1AB-1F0B0FF966FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8412F140-C9E7-4322-A5CF-9B651619ED75}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7152F2E6-48D8-4875-8140-D878A62991A1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5A8967D2-E2C1-4799-88C9-366E5C06CF85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4B94A48-61FE-459D-A61F-22A7CE304439}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ECC9B7EA-D458-4737-B4CF-B08C4A4D5CB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{308371FC-0728-46DF-9DFA-1E8257C50003}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0065DC43-D9BE-494F-AAF2-50FB87165C2A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{310A4826-FDE2-46D5-B0CD-26A03B21D48A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C648C77-689C-4297-93F3-F943CC4CD6B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98BC0827-0E30-4E9A-89AB-AD0984878CFC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F0DCC690-28EB-42C3-80B7-47A4535CF7C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32704D03-157F-4023-807E-B4AC174D5068}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0571EEE-B0F3-459E-A2B4-A4062AD72DD9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8C885FC-A2C8-4290-8CAE-8BEBEDF2A291}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9AD305D2-3DCD-486A-AE49-1B37CEA2E01C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E8D0EC5-4B36-4C94-AA40-B02DEF4D2FDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6C77705-49F9-4D7F-9F34-CBE755E27C9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14414,7 +14414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D923F0EC-9458-4038-9D50-AC24150812FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555AB421-934E-46EF-9575-01672832F42D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15689,18 +15689,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CCD4AC7-2220-4E9C-9E5C-53BEF90FDDAD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A886CCB6-E6F4-4C02-9748-C72EB5B9EE7A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DDF19996-C333-42CB-8C1B-336CBE82BDD7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{921A04E0-7D5B-4E5D-8E8B-D09A6D0B657A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8AFAEC1-96CA-4970-9247-BCB127840D7C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E7DD42CE-798C-4DEE-8D2D-2C98CD133BE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C2EB4BD-3DBE-4C1C-88A9-EF6848FBC952}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9320A182-A34C-417D-92F3-90F50B44FE75}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{759118BD-CDF8-4461-8DFF-8949168526C3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F16C077C-5C6E-48F9-8D25-73DF1E42F5A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B4D54E0-1EC7-4A43-A8FB-54F1C58BBD0D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4A87932-C1E0-4603-AD06-AF74BC40E674}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A741A36-10DC-43F3-844F-4B64C52ED67C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4DB0CCE-D432-4AB5-841F-E51EC0A088F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F43F4C4A-CBCA-4D36-B5AC-7FA88861545B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6F2526C-5FAB-4C9A-B6A4-D01AFE87A501}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A946FA4-8DD6-48A7-B395-9A382C28E56A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CFCD371C-038D-4DBA-A9DA-1509411233C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7641BC7F-B278-4751-97FF-494566F04CE9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03EDC2DC-A6D0-4F72-875C-E56DCA4ECD09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63DE6826-4085-40DD-A5FE-18187315562E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5F1931BE-36FB-4075-8A6B-3245137A1492}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBCCC0B5-F209-4C3B-94D5-4399A0F8A6B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5BF8FF9-309B-4B00-A71E-9B131DFE8378}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15713,7 +15713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7A4664-7027-4A8E-9E9E-BA73A3CE1A66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C5E09C-51B7-4B5C-AC0D-C7563FAE3610}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16988,18 +16988,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF6D9306-081C-4686-8C75-6349334ED2F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BE83863-F5CD-47A0-936D-E0B732985E1F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C57FCB40-72E1-4AEB-8927-9EAEDA9EB8AC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DC005676-D14C-4FC9-8C6F-875A9ABCF4E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74E2C37F-C156-4B91-9EFE-9E4CA0AAC997}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0340BEE7-02D4-4380-ACC7-B291F536FA02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9CAD7EF-D749-43F4-AA8B-258396108BC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB91E0B2-9D82-41A6-9B1B-09826E6C311F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22E5BC54-5688-45FE-B552-0B6EDFA6F959}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{535104A5-B0D1-437A-812E-7272D6EE2953}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{704BADFB-AF7A-4836-B944-1600978F6681}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47F1EF51-2EBD-4F68-8124-31290A1713A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33FF8E22-4AEB-4128-9A3A-16BFAC007ED9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A30F5686-2D5D-4BAC-B7C8-4E88ACFFBB29}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1198F8E4-3343-4764-A89E-9F43E69A2C36}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB8A3EE7-FFA4-4F91-9F76-F8BD176026AE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{645B8AE8-E1B7-480F-8EE0-38A75B142234}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D187D1B-B023-4062-8BE9-BFA67DF21AF3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FBD35D6-8683-48BD-BB28-C9944B7E4BE2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04ACF1E5-8BE2-4536-A626-AD2465F2D3EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B96C45A-D4D8-4582-8CEE-61D6117CB642}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5736B767-5521-47DB-981D-3CF7962E2F39}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{915606D2-FFE0-4DDC-9B9A-855CFB6F07A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8C6F1AF-740F-4E6F-8896-C3B38768FC27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
